--- a/docs/td1/Backlog.xlsx
+++ b/docs/td1/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medsi\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medsi\OneDrive\Desktop\projet_GL\docs\td1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF2A189-26C9-417D-ADF8-2044EA0A2A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA727F-F892-4FE5-8E3A-794AEB8B0EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/td1/Backlog.xlsx
+++ b/docs/td1/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medsi\OneDrive\Desktop\projet_GL\docs\td1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA727F-F892-4FE5-8E3A-794AEB8B0EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474FC37-48EE-44B0-9304-D3BC11E80826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -207,15 +207,9 @@
     <t>Superviseur</t>
   </si>
   <si>
-    <t>T8.1</t>
-  </si>
-  <si>
     <t>Lister statistiques nécessaires</t>
   </si>
   <si>
-    <t>T8.2</t>
-  </si>
-  <si>
     <t>Créer maquette dashboard</t>
   </si>
   <si>
@@ -225,15 +219,9 @@
     <t>Valider/Rejeter justificatifs</t>
   </si>
   <si>
-    <t>T9.1</t>
-  </si>
-  <si>
     <t>Définir processus de validation</t>
   </si>
   <si>
-    <t>T9.2</t>
-  </si>
-  <si>
     <t>Créer interface de validation</t>
   </si>
   <si>
@@ -253,6 +241,30 @@
   </si>
   <si>
     <t>Définir actions automatiques</t>
+  </si>
+  <si>
+    <t>Soumission de justificatif</t>
+  </si>
+  <si>
+    <t>Saisie manuelle en cas de panne</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>T11.1</t>
+  </si>
+  <si>
+    <t>T11.2</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>T12.1</t>
+  </si>
+  <si>
+    <t>T12.2</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,13 +1107,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
@@ -1109,16 +1121,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
@@ -1129,19 +1141,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
@@ -1149,16 +1161,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>10</v>
@@ -1169,19 +1181,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>11</v>
@@ -1189,19 +1201,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>11</v>
@@ -1209,19 +1221,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -1229,13 +1241,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
@@ -1249,25 +1261,66 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/td1/Backlog.xlsx
+++ b/docs/td1/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medsi\OneDrive\Desktop\projet_GL\docs\td1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474FC37-48EE-44B0-9304-D3BC11E80826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2B65F1-841D-4484-9090-2F1F1F20FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3600" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -126,21 +126,6 @@
     <t>US4</t>
   </si>
   <si>
-    <t>Télécharger ses absences</t>
-  </si>
-  <si>
-    <t>T4.1</t>
-  </si>
-  <si>
-    <t>Définir formats PDF/Excel</t>
-  </si>
-  <si>
-    <t>T4.2</t>
-  </si>
-  <si>
-    <t>Créer maquette d’export</t>
-  </si>
-  <si>
     <t>US5</t>
   </si>
   <si>
@@ -165,39 +150,9 @@
     <t>US6</t>
   </si>
   <si>
-    <t>Générer code dynamique</t>
-  </si>
-  <si>
-    <t>T6.1</t>
-  </si>
-  <si>
-    <t>Décrire règle sécurité du code</t>
-  </si>
-  <si>
-    <t>T6.2</t>
-  </si>
-  <si>
-    <t>Définir fréquence de régénération</t>
-  </si>
-  <si>
     <t>US7</t>
   </si>
   <si>
-    <t>Voir liste présents/absents</t>
-  </si>
-  <si>
-    <t>T7.1</t>
-  </si>
-  <si>
-    <t>Créer tableau affichage</t>
-  </si>
-  <si>
-    <t>T7.2</t>
-  </si>
-  <si>
-    <t>Définir filtres de présence</t>
-  </si>
-  <si>
     <t>US8</t>
   </si>
   <si>
@@ -265,6 +220,15 @@
   </si>
   <si>
     <t>T12.2</t>
+  </si>
+  <si>
+    <t>Générer un QR code</t>
+  </si>
+  <si>
+    <t>Suivre le taux d’absentéisme</t>
+  </si>
+  <si>
+    <t>Scanner le QR code</t>
   </si>
 </sst>
 </file>
@@ -647,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -867,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -881,19 +845,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -913,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
@@ -924,16 +888,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -941,19 +905,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -961,16 +925,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -981,16 +945,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
@@ -1004,16 +968,16 @@
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
@@ -1021,19 +985,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
@@ -1041,19 +1005,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>11</v>
@@ -1061,13 +1025,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
@@ -1081,19 +1045,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>11</v>
@@ -1101,19 +1065,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
@@ -1121,19 +1085,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>11</v>
@@ -1141,19 +1105,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
@@ -1161,19 +1125,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>11</v>
@@ -1181,141 +1145,21 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
